--- a/Finflux Automation Excels/Client/5035-DISBURSELOANon01Jan2015-uncheckAccountMovesOutOfNPA-VIEWJOURNALENTRIES-NPA-Disb2ndTranche.xlsx
+++ b/Finflux Automation Excels/Client/5035-DISBURSELOANon01Jan2015-uncheckAccountMovesOutOfNPA-VIEWJOURNALENTRIES-NPA-Disb2ndTranche.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
   <si>
     <t>clickondisburse</t>
   </si>
@@ -555,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1485,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,9 +1532,9 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -1543,16 +1543,16 @@
         <v>42095</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="11">
-        <v>7.51</v>
+        <v>51.78</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
       </c>
       <c r="G2" s="11">
-        <v>7.51</v>
+        <v>51.78</v>
       </c>
       <c r="H2" s="11">
         <v>0</v>
@@ -1566,27 +1566,27 @@
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="12">
-        <v>42095</v>
+        <v>42086</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="11">
-        <v>51.78</v>
+        <v>36.17</v>
       </c>
       <c r="F3" s="11">
         <v>0</v>
       </c>
       <c r="G3" s="11">
-        <v>51.78</v>
+        <v>36.17</v>
       </c>
       <c r="H3" s="11">
         <v>0</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>33</v>
@@ -1614,13 +1614,13 @@
         <v>34</v>
       </c>
       <c r="E4" s="11">
-        <v>36.17</v>
+        <v>11.68</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <v>36.17</v>
+        <v>11.68</v>
       </c>
       <c r="H4" s="11">
         <v>0</v>
@@ -1634,9 +1634,9 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>33</v>
@@ -1645,16 +1645,16 @@
         <v>42086</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="11">
-        <v>11.68</v>
+        <v>13.94</v>
       </c>
       <c r="F5" s="11">
         <v>0</v>
       </c>
       <c r="G5" s="11">
-        <v>11.68</v>
+        <v>13.94</v>
       </c>
       <c r="H5" s="11">
         <v>0</v>
@@ -1668,9 +1668,9 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>33</v>
@@ -1679,16 +1679,16 @@
         <v>42086</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="11">
-        <v>13.94</v>
+        <v>23.01</v>
       </c>
       <c r="F6" s="11">
         <v>0</v>
       </c>
       <c r="G6" s="11">
-        <v>13.94</v>
+        <v>23.01</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
@@ -1702,9 +1702,9 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>33</v>
@@ -1713,7 +1713,7 @@
         <v>42086</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="11">
         <v>23.01</v>
@@ -1736,27 +1736,27 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="12">
-        <v>42086</v>
+        <v>42072</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="11">
-        <v>23.01</v>
+        <v>11.68</v>
       </c>
       <c r="F8" s="11">
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <v>23.01</v>
+        <v>11.68</v>
       </c>
       <c r="H8" s="11">
         <v>0</v>
@@ -1770,9 +1770,9 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>33</v>
@@ -1781,16 +1781,16 @@
         <v>42072</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="11">
-        <v>11.68</v>
+        <v>13.94</v>
       </c>
       <c r="F9" s="11">
         <v>0</v>
       </c>
       <c r="G9" s="11">
-        <v>11.68</v>
+        <v>13.94</v>
       </c>
       <c r="H9" s="11">
         <v>0</v>
@@ -1804,9 +1804,9 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>33</v>
@@ -1815,16 +1815,16 @@
         <v>42072</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="11">
-        <v>13.94</v>
+        <v>23.01</v>
       </c>
       <c r="F10" s="11">
         <v>0</v>
       </c>
       <c r="G10" s="11">
-        <v>13.94</v>
+        <v>23.01</v>
       </c>
       <c r="H10" s="11">
         <v>0</v>
@@ -1838,9 +1838,9 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>33</v>
@@ -1849,7 +1849,7 @@
         <v>42072</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="11">
         <v>23.01</v>
@@ -1872,27 +1872,27 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="12">
-        <v>42072</v>
+        <v>42064</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="11">
-        <v>23.01</v>
+        <v>37</v>
+      </c>
+      <c r="E12" s="14">
+        <v>5000</v>
       </c>
       <c r="F12" s="11">
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <v>23.01</v>
+        <v>0</v>
       </c>
       <c r="H12" s="11">
         <v>0</v>
@@ -1900,33 +1900,33 @@
       <c r="I12" s="11">
         <v>0</v>
       </c>
-      <c r="J12" s="11">
-        <v>0</v>
+      <c r="J12" s="15">
+        <v>7537.56</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="12">
-        <v>42064</v>
+        <v>42058</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="14">
-        <v>5000</v>
+        <v>34</v>
+      </c>
+      <c r="E13" s="11">
+        <v>11.68</v>
       </c>
       <c r="F13" s="11">
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>11.68</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
@@ -1934,15 +1934,15 @@
       <c r="I13" s="11">
         <v>0</v>
       </c>
-      <c r="J13" s="15">
-        <v>7537.56</v>
+      <c r="J13" s="11">
+        <v>0</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>33</v>
@@ -1951,16 +1951,16 @@
         <v>42058</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="11">
-        <v>11.68</v>
+        <v>13.94</v>
       </c>
       <c r="F14" s="11">
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <v>11.68</v>
+        <v>13.94</v>
       </c>
       <c r="H14" s="11">
         <v>0</v>
@@ -1974,9 +1974,9 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>33</v>
@@ -1985,16 +1985,16 @@
         <v>42058</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="11">
-        <v>13.94</v>
+        <v>23.01</v>
       </c>
       <c r="F15" s="11">
         <v>0</v>
       </c>
       <c r="G15" s="11">
-        <v>13.94</v>
+        <v>23.01</v>
       </c>
       <c r="H15" s="11">
         <v>0</v>
@@ -2008,9 +2008,9 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>33</v>
@@ -2019,7 +2019,7 @@
         <v>42058</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="11">
         <v>23.01</v>
@@ -2042,27 +2042,27 @@
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="12">
-        <v>42058</v>
+        <v>42044</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11">
-        <v>23.01</v>
+        <v>1.67</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
       </c>
       <c r="G17" s="11">
-        <v>23.01</v>
+        <v>1.67</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
@@ -2076,9 +2076,9 @@
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>33</v>
@@ -2087,16 +2087,16 @@
         <v>42044</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="11">
-        <v>1.67</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="F18" s="11">
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <v>1.67</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="H18" s="11">
         <v>0</v>
@@ -2110,9 +2110,9 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>33</v>
@@ -2121,16 +2121,16 @@
         <v>42044</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="11">
-        <v>9.9600000000000009</v>
+        <v>23.01</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>9.9600000000000009</v>
+        <v>23.01</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
@@ -2144,9 +2144,9 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>33</v>
@@ -2155,7 +2155,7 @@
         <v>42044</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" s="11">
         <v>23.01</v>
@@ -2178,27 +2178,27 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="12">
-        <v>42044</v>
+        <v>42042</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="11">
-        <v>23.01</v>
+        <v>7.97</v>
       </c>
       <c r="F21" s="11">
         <v>0</v>
       </c>
       <c r="G21" s="11">
-        <v>23.01</v>
+        <v>7.97</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>33</v>
@@ -2223,13 +2223,13 @@
         <v>42042</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E22" s="11">
-        <v>7.97</v>
+        <v>500</v>
       </c>
       <c r="F22" s="11">
-        <v>0</v>
+        <v>492.03</v>
       </c>
       <c r="G22" s="11">
         <v>7.97</v>
@@ -2240,33 +2240,33 @@
       <c r="I22" s="11">
         <v>0</v>
       </c>
-      <c r="J22" s="11">
-        <v>0</v>
+      <c r="J22" s="15">
+        <v>2537.56</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="12">
-        <v>42042</v>
+        <v>42034</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E23" s="11">
-        <v>500</v>
+        <v>6.58</v>
       </c>
       <c r="F23" s="11">
-        <v>492.03</v>
+        <v>0</v>
       </c>
       <c r="G23" s="11">
-        <v>7.97</v>
+        <v>6.58</v>
       </c>
       <c r="H23" s="11">
         <v>0</v>
@@ -2274,15 +2274,15 @@
       <c r="I23" s="11">
         <v>0</v>
       </c>
-      <c r="J23" s="15">
-        <v>2537.56</v>
+      <c r="J23" s="11">
+        <v>0</v>
       </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>33</v>
@@ -2291,16 +2291,16 @@
         <v>42034</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" s="11">
-        <v>6.58</v>
+        <v>23.01</v>
       </c>
       <c r="F24" s="11">
         <v>0</v>
       </c>
       <c r="G24" s="11">
-        <v>6.58</v>
+        <v>23.01</v>
       </c>
       <c r="H24" s="11">
         <v>0</v>
@@ -2314,9 +2314,9 @@
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>33</v>
@@ -2325,16 +2325,16 @@
         <v>42034</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="11">
-        <v>23.01</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2000</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1970.41</v>
       </c>
       <c r="G25" s="11">
-        <v>23.01</v>
+        <v>29.59</v>
       </c>
       <c r="H25" s="11">
         <v>0</v>
@@ -2342,33 +2342,33 @@
       <c r="I25" s="11">
         <v>0</v>
       </c>
-      <c r="J25" s="11">
-        <v>0</v>
+      <c r="J25" s="15">
+        <v>3029.59</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="12">
-        <v>42034</v>
+        <v>42030</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="14">
-        <v>2000</v>
-      </c>
-      <c r="F26" s="15">
-        <v>1970.41</v>
+        <v>36</v>
+      </c>
+      <c r="E26" s="11">
+        <v>23.01</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
       </c>
       <c r="G26" s="11">
-        <v>29.59</v>
+        <v>23.01</v>
       </c>
       <c r="H26" s="11">
         <v>0</v>
@@ -2376,15 +2376,15 @@
       <c r="I26" s="11">
         <v>0</v>
       </c>
-      <c r="J26" s="15">
-        <v>3029.59</v>
+      <c r="J26" s="11">
+        <v>0</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>33</v>
@@ -2393,7 +2393,7 @@
         <v>42030</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27" s="11">
         <v>23.01</v>
@@ -2418,25 +2418,25 @@
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="12">
-        <v>42030</v>
+        <v>42005</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="11">
-        <v>23.01</v>
+        <v>37</v>
+      </c>
+      <c r="E28" s="14">
+        <v>5000</v>
       </c>
       <c r="F28" s="11">
         <v>0</v>
       </c>
       <c r="G28" s="11">
-        <v>23.01</v>
+        <v>0</v>
       </c>
       <c r="H28" s="11">
         <v>0</v>
@@ -2444,45 +2444,11 @@
       <c r="I28" s="11">
         <v>0</v>
       </c>
-      <c r="J28" s="11">
-        <v>0</v>
+      <c r="J28" s="14">
+        <v>5000</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>1</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="12">
-        <v>42005</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="14">
-        <v>5000</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="14">
-        <v>5000</v>
-      </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
